--- a/scouting/match_scores_comparison.xlsx
+++ b/scouting/match_scores_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\robots\ChargedUp2023\scouting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AFE6FB0-151D-44A4-96BB-5B164A5E005D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7521D8C8-0D83-4FDB-AA6C-6BC2C17AF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3BF5BCF-A2A4-423C-97C8-CE84DEB5030C}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">dump_matches!$D$2:$D$534</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">dump_matches!$D$2:$D$534</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">dump_matches!$D$2:$D$534</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">dump_matches!$A$1:$D$534</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1753,7 +1756,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>'red score' by 'blue score'</a:t>
+              <a:t>'red score' vs 'blue score'</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5350,7 +5353,127 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Frequency of 'combined score'</cx:v>
+        </cx:txData>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C603C972-0DE1-4D0F-927E-1405D20B4D04}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="595959"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.330000013"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>combined score</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frequency</cx:v>
+            </cx:txData>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5906,18 +6029,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5942,6 +6573,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5" descr="Chart type: Histogram. Frequency of 'combined score'&#10;&#10;Description automatically generated">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A1C516-B508-3DC5-BB78-3228CF80FA23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3222624" y="7327899"/>
+              <a:ext cx="12455525" cy="6245225"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6272,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7BC6E1-DE3E-4F2A-8254-F8919283AFD1}">
   <dimension ref="A1:D534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C534"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
